--- a/Number of Replicas v.s. Consensus Performance (network delay).xlsx
+++ b/Number of Replicas v.s. Consensus Performance (network delay).xlsx
@@ -797,7 +797,7 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>21.06957951999998</c:v>
+                  <c:v>11.06957951999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.811341036599991</c:v>
@@ -887,10 +887,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19.11478041619997</c:v>
+                  <c:v>9.1147804161999701</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.161324433599979</c:v>
+                  <c:v>9.1613244335999795</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>10.913392915999982</c:v>
@@ -977,10 +977,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>39.058633653499989</c:v>
+                  <c:v>19.058633653499989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>39.110922748899974</c:v>
+                  <c:v>19.110922748899974</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>20.879677753000003</c:v>
@@ -1420,10 +1420,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.2502771395759023E-3</c:v>
+                  <c:v>4.2502771395759024E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2338607757805829E-3</c:v>
+                  <c:v>4.2338607757805832E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.9150946300414068E-2</c:v>
@@ -1510,10 +1510,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.2937010620712297E-3</c:v>
+                  <c:v>2.2937010620712295E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.2869236856044224E-3</c:v>
+                  <c:v>2.2869236856044223E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2.2117098639915081E-2</c:v>
@@ -1600,10 +1600,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.2368498827916102E-3</c:v>
+                  <c:v>3.2368498827916106E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2150593689487259E-3</c:v>
+                  <c:v>3.2150593689487257E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>3.0641209927397314E-2</c:v>
@@ -1690,10 +1690,10 @@
                 <c:formatCode>0.000_);[Red]\(0.000\)</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>1.6413243723234689E-3</c:v>
+                  <c:v>1.6413243723234688E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.6369084622142917E-3</c:v>
+                  <c:v>1.6369084622142916E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.6008226189453693E-2</c:v>
@@ -3485,7 +3485,7 @@
   <dimension ref="A2:N97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7098,6 +7098,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A9:A16"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A4:N4"/>
     <mergeCell ref="A72:A79"/>
     <mergeCell ref="A81:A88"/>
     <mergeCell ref="A90:A97"/>
@@ -7107,12 +7113,6 @@
     <mergeCell ref="A45:A52"/>
     <mergeCell ref="A54:A61"/>
     <mergeCell ref="A63:A70"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="A9:A16"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A4:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7124,7 +7124,7 @@
   <dimension ref="A2:N77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9882,6 +9882,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A2:B3"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A14"/>
     <mergeCell ref="A58:A63"/>
     <mergeCell ref="A65:A70"/>
     <mergeCell ref="A72:A77"/>
@@ -9892,11 +9897,6 @@
     <mergeCell ref="A37:A42"/>
     <mergeCell ref="A44:A49"/>
     <mergeCell ref="A51:A56"/>
-    <mergeCell ref="A2:B3"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:N2"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A9:A14"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9907,8 +9907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P44" sqref="P44:P46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -9989,12 +9989,12 @@
       </c>
       <c r="B4" s="11"/>
       <c r="C4" s="2">
-        <f>100/('BFT-SMaRt'!C5*2*'BFT-SMaRt'!C6)</f>
-        <v>3.2368498827916102E-3</v>
+        <f>1000/('BFT-SMaRt'!C5*2*'BFT-SMaRt'!C6)</f>
+        <v>3.2368498827916106E-2</v>
       </c>
       <c r="D4" s="2">
-        <f>100/('BFT-SMaRt'!D5*2*'BFT-SMaRt'!D6)</f>
-        <v>3.2150593689487259E-3</v>
+        <f>1000/('BFT-SMaRt'!D5*2*'BFT-SMaRt'!D6)</f>
+        <v>3.2150593689487257E-2</v>
       </c>
       <c r="E4" s="2">
         <f>100/('BFT-SMaRt'!E5*2*'BFT-SMaRt'!E6)</f>
@@ -10013,12 +10013,12 @@
         <v>2.8998459790885868E-2</v>
       </c>
       <c r="I4" s="2">
-        <f>100/('BFT-SMaRt'!I5*2*'BFT-SMaRt'!I6)</f>
-        <v>1.6413243723234689E-3</v>
+        <f>1000/('BFT-SMaRt'!I5*2*'BFT-SMaRt'!I6)</f>
+        <v>1.6413243723234688E-2</v>
       </c>
       <c r="J4" s="2">
-        <f>100/('BFT-SMaRt'!J5*2*'BFT-SMaRt'!J6)</f>
-        <v>1.6369084622142917E-3</v>
+        <f>1000/('BFT-SMaRt'!J5*2*'BFT-SMaRt'!J6)</f>
+        <v>1.6369084622142916E-2</v>
       </c>
       <c r="K4" s="2">
         <f>100/('BFT-SMaRt'!K5*2*'BFT-SMaRt'!K6)</f>
@@ -10601,15 +10601,15 @@
         <v>40</v>
       </c>
       <c r="C16" s="8">
-        <f t="shared" ref="C16:N16" si="0">AVERAGE(C6:C15)</f>
-        <v>19.11478041619997</v>
+        <f>AVERAGE(C6:C15)-10</f>
+        <v>9.1147804161999701</v>
       </c>
       <c r="D16" s="8">
-        <f t="shared" si="0"/>
-        <v>19.161324433599979</v>
+        <f>AVERAGE(D6:D15)-10</f>
+        <v>9.1613244335999795</v>
       </c>
       <c r="E16" s="8">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C16:N16" si="0">AVERAGE(E6:E15)</f>
         <v>10.913392915999982</v>
       </c>
       <c r="F16" s="8">
@@ -10625,12 +10625,12 @@
         <v>15.673078240000001</v>
       </c>
       <c r="I16" s="8">
-        <f t="shared" si="0"/>
-        <v>39.058633653499989</v>
+        <f>AVERAGE(I6:I15)-20</f>
+        <v>19.058633653499989</v>
       </c>
       <c r="J16" s="8">
-        <f t="shared" si="0"/>
-        <v>39.110922748899974</v>
+        <f>AVERAGE(J6:J15)-20</f>
+        <v>19.110922748899974</v>
       </c>
       <c r="K16" s="8">
         <f t="shared" si="0"/>
@@ -10717,12 +10717,12 @@
       </c>
       <c r="B21" s="11"/>
       <c r="C21" s="2">
-        <f>100/(BFTChain!C5*2*BFTChain!C6)</f>
-        <v>4.2502771395759023E-3</v>
+        <f>1000/(BFTChain!C5*2*BFTChain!C6)</f>
+        <v>4.2502771395759024E-2</v>
       </c>
       <c r="D21" s="2">
-        <f>100/(BFTChain!D5*2*BFTChain!D6)</f>
-        <v>4.2338607757805829E-3</v>
+        <f>1000/(BFTChain!D5*2*BFTChain!D6)</f>
+        <v>4.2338607757805832E-2</v>
       </c>
       <c r="E21" s="2">
         <f>100/(BFTChain!E5*2*BFTChain!E6)</f>
@@ -10741,12 +10741,12 @@
         <v>2.8688191477934038E-2</v>
       </c>
       <c r="I21" s="2">
-        <f>100/(BFTChain!I5*2*BFTChain!I6)</f>
-        <v>2.2937010620712297E-3</v>
+        <f>1000/(BFTChain!I5*2*BFTChain!I6)</f>
+        <v>2.2937010620712295E-2</v>
       </c>
       <c r="J21" s="2">
-        <f>100/(BFTChain!J5*2*BFTChain!J6)</f>
-        <v>2.2869236856044224E-3</v>
+        <f>1000/(BFTChain!J5*2*BFTChain!J6)</f>
+        <v>2.2869236856044223E-2</v>
       </c>
       <c r="K21" s="2">
         <f>100/(BFTChain!K5*2*BFTChain!K6)</f>
@@ -11352,8 +11352,8 @@
         <v>21.06957951999998</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
-        <v>21.06957951999998</v>
+        <f>AVERAGE(I23:I32)-10</f>
+        <v>11.06957951999998</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="1"/>
